--- a/biology/Médecine/1690_en_santé_et_médecine/1690_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1690_en_santé_et_médecine/1690_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1690_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1690_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1690 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1690_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1690_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-L’ergot du seigle est responsable de graves épidémies du mal des ardents[1].</t>
+L’ergot du seigle est responsable de graves épidémies du mal des ardents.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1690_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1690_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le botaniste et médecin néerlandais Paul Hermann (1646-1695), publie un catalogue de 5 000 plantes réparties en 25 classes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le botaniste et médecin néerlandais Paul Hermann (1646-1695), publie un catalogue de 5 000 plantes réparties en 25 classes.
 La sage-femme polonaise Justine Siegemund (1636-1705) publie Die Chur-Brandenburgische Hof-Wehemutter [« La sage-femme de la cour »] (Édition de 1724 sur Google Livres).</t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1690_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1690_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6 février : Kilian Stobæus (mort en 1742), médecin et naturaliste suédois[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 février : Kilian Stobæus (mort en 1742), médecin et naturaliste suédois.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1690_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1690_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,9 +621,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13 octobre : Ole Borch (né en 1626), chimiste, médecin, grammairien et poète danois[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>13 octobre : Ole Borch (né en 1626), chimiste, médecin, grammairien et poète danois.</t>
         </is>
       </c>
     </row>
